--- a/Datasets/Unita_Zipped_Sizes.xlsx
+++ b/Datasets/Unita_Zipped_Sizes.xlsx
@@ -463,7 +463,7 @@
         <v>1948</v>
       </c>
       <c r="D2" t="n">
-        <v>317114</v>
+        <v>330523</v>
       </c>
     </row>
     <row r="3">
@@ -479,7 +479,7 @@
         <v>1949</v>
       </c>
       <c r="D3" t="n">
-        <v>357400</v>
+        <v>405281</v>
       </c>
     </row>
     <row r="4">
@@ -495,7 +495,7 @@
         <v>1950</v>
       </c>
       <c r="D4" t="n">
-        <v>419994</v>
+        <v>423674</v>
       </c>
     </row>
     <row r="5">
@@ -511,7 +511,7 @@
         <v>1951</v>
       </c>
       <c r="D5" t="n">
-        <v>433435</v>
+        <v>432435</v>
       </c>
     </row>
     <row r="6">
@@ -527,7 +527,7 @@
         <v>1952</v>
       </c>
       <c r="D6" t="n">
-        <v>403398</v>
+        <v>413160</v>
       </c>
     </row>
     <row r="7">
@@ -543,7 +543,7 @@
         <v>1953</v>
       </c>
       <c r="D7" t="n">
-        <v>394473</v>
+        <v>403423</v>
       </c>
     </row>
     <row r="8">
@@ -559,7 +559,7 @@
         <v>1954</v>
       </c>
       <c r="D8" t="n">
-        <v>339651</v>
+        <v>347741</v>
       </c>
     </row>
     <row r="9">
@@ -575,7 +575,7 @@
         <v>1955</v>
       </c>
       <c r="D9" t="n">
-        <v>340947</v>
+        <v>329693</v>
       </c>
     </row>
     <row r="10">
@@ -591,7 +591,7 @@
         <v>1956</v>
       </c>
       <c r="D10" t="n">
-        <v>241758</v>
+        <v>270026</v>
       </c>
     </row>
     <row r="11">
@@ -607,7 +607,7 @@
         <v>1957</v>
       </c>
       <c r="D11" t="n">
-        <v>321546</v>
+        <v>366121</v>
       </c>
     </row>
     <row r="12">
@@ -623,7 +623,7 @@
         <v>1958</v>
       </c>
       <c r="D12" t="n">
-        <v>231804</v>
+        <v>226333</v>
       </c>
     </row>
     <row r="13">
@@ -639,7 +639,7 @@
         <v>1959</v>
       </c>
       <c r="D13" t="n">
-        <v>203884</v>
+        <v>258694</v>
       </c>
     </row>
     <row r="14">
@@ -655,7 +655,7 @@
         <v>1960</v>
       </c>
       <c r="D14" t="n">
-        <v>230677</v>
+        <v>206408</v>
       </c>
     </row>
     <row r="15">
@@ -671,7 +671,7 @@
         <v>1961</v>
       </c>
       <c r="D15" t="n">
-        <v>193003</v>
+        <v>238600</v>
       </c>
     </row>
     <row r="16">
@@ -687,7 +687,7 @@
         <v>1962</v>
       </c>
       <c r="D16" t="n">
-        <v>235550</v>
+        <v>341384</v>
       </c>
     </row>
     <row r="17">
@@ -703,7 +703,7 @@
         <v>1963</v>
       </c>
       <c r="D17" t="n">
-        <v>424449</v>
+        <v>419540</v>
       </c>
     </row>
     <row r="18">
@@ -719,7 +719,7 @@
         <v>1964</v>
       </c>
       <c r="D18" t="n">
-        <v>498222</v>
+        <v>472187</v>
       </c>
     </row>
     <row r="19">
@@ -735,7 +735,7 @@
         <v>1965</v>
       </c>
       <c r="D19" t="n">
-        <v>506698</v>
+        <v>438712</v>
       </c>
     </row>
     <row r="20">
@@ -751,7 +751,7 @@
         <v>1966</v>
       </c>
       <c r="D20" t="n">
-        <v>438418</v>
+        <v>432106</v>
       </c>
     </row>
     <row r="21">
@@ -767,7 +767,7 @@
         <v>1967</v>
       </c>
       <c r="D21" t="n">
-        <v>402152</v>
+        <v>421738</v>
       </c>
     </row>
     <row r="22">
@@ -783,7 +783,7 @@
         <v>1968</v>
       </c>
       <c r="D22" t="n">
-        <v>406138</v>
+        <v>445454</v>
       </c>
     </row>
     <row r="23">
@@ -799,7 +799,7 @@
         <v>1969</v>
       </c>
       <c r="D23" t="n">
-        <v>321711</v>
+        <v>413828</v>
       </c>
     </row>
     <row r="24">
@@ -815,7 +815,7 @@
         <v>1970</v>
       </c>
       <c r="D24" t="n">
-        <v>378038</v>
+        <v>326182</v>
       </c>
     </row>
     <row r="25">
@@ -831,7 +831,7 @@
         <v>1971</v>
       </c>
       <c r="D25" t="n">
-        <v>547625</v>
+        <v>497731</v>
       </c>
     </row>
     <row r="26">
@@ -847,7 +847,7 @@
         <v>1972</v>
       </c>
       <c r="D26" t="n">
-        <v>497254</v>
+        <v>553329</v>
       </c>
     </row>
     <row r="27">
@@ -863,7 +863,7 @@
         <v>1973</v>
       </c>
       <c r="D27" t="n">
-        <v>487151</v>
+        <v>539797</v>
       </c>
     </row>
     <row r="28">
@@ -879,7 +879,7 @@
         <v>1974</v>
       </c>
       <c r="D28" t="n">
-        <v>520751</v>
+        <v>568015</v>
       </c>
     </row>
     <row r="29">
@@ -895,7 +895,7 @@
         <v>1975</v>
       </c>
       <c r="D29" t="n">
-        <v>504661</v>
+        <v>519581</v>
       </c>
     </row>
     <row r="30">
@@ -911,7 +911,7 @@
         <v>1976</v>
       </c>
       <c r="D30" t="n">
-        <v>450285</v>
+        <v>469151</v>
       </c>
     </row>
     <row r="31">
@@ -927,7 +927,7 @@
         <v>1977</v>
       </c>
       <c r="D31" t="n">
-        <v>326336</v>
+        <v>468385</v>
       </c>
     </row>
     <row r="32">
@@ -943,7 +943,7 @@
         <v>1978</v>
       </c>
       <c r="D32" t="n">
-        <v>403356</v>
+        <v>475133</v>
       </c>
     </row>
     <row r="33">
@@ -959,7 +959,7 @@
         <v>1979</v>
       </c>
       <c r="D33" t="n">
-        <v>488981</v>
+        <v>508824</v>
       </c>
     </row>
     <row r="34">
@@ -975,7 +975,7 @@
         <v>1980</v>
       </c>
       <c r="D34" t="n">
-        <v>474847</v>
+        <v>471772</v>
       </c>
     </row>
     <row r="35">
@@ -991,7 +991,7 @@
         <v>1981</v>
       </c>
       <c r="D35" t="n">
-        <v>506932</v>
+        <v>539878</v>
       </c>
     </row>
     <row r="36">
@@ -1007,7 +1007,7 @@
         <v>1982</v>
       </c>
       <c r="D36" t="n">
-        <v>587356</v>
+        <v>588367</v>
       </c>
     </row>
     <row r="37">
@@ -1023,7 +1023,7 @@
         <v>1983</v>
       </c>
       <c r="D37" t="n">
-        <v>533889</v>
+        <v>602621</v>
       </c>
     </row>
     <row r="38">
@@ -1039,7 +1039,7 @@
         <v>1984</v>
       </c>
       <c r="D38" t="n">
-        <v>612494</v>
+        <v>634243</v>
       </c>
     </row>
     <row r="39">
@@ -1055,7 +1055,7 @@
         <v>1985</v>
       </c>
       <c r="D39" t="n">
-        <v>616415</v>
+        <v>610392</v>
       </c>
     </row>
     <row r="40">
@@ -1071,7 +1071,7 @@
         <v>1986</v>
       </c>
       <c r="D40" t="n">
-        <v>601300</v>
+        <v>610571</v>
       </c>
     </row>
     <row r="41">
@@ -1087,7 +1087,7 @@
         <v>1987</v>
       </c>
       <c r="D41" t="n">
-        <v>592057</v>
+        <v>620356</v>
       </c>
     </row>
     <row r="42">
@@ -1103,7 +1103,7 @@
         <v>1988</v>
       </c>
       <c r="D42" t="n">
-        <v>602260</v>
+        <v>609048</v>
       </c>
     </row>
     <row r="43">
@@ -1119,7 +1119,7 @@
         <v>1989</v>
       </c>
       <c r="D43" t="n">
-        <v>586744</v>
+        <v>629104</v>
       </c>
     </row>
     <row r="44">
@@ -1135,7 +1135,7 @@
         <v>1990</v>
       </c>
       <c r="D44" t="n">
-        <v>563283</v>
+        <v>592958</v>
       </c>
     </row>
     <row r="45">
@@ -1151,7 +1151,7 @@
         <v>1991</v>
       </c>
       <c r="D45" t="n">
-        <v>597856</v>
+        <v>608101</v>
       </c>
     </row>
     <row r="46">
@@ -1167,7 +1167,7 @@
         <v>1992</v>
       </c>
       <c r="D46" t="n">
-        <v>431601</v>
+        <v>550447</v>
       </c>
     </row>
     <row r="47">
@@ -1183,7 +1183,7 @@
         <v>1993</v>
       </c>
       <c r="D47" t="n">
-        <v>536541</v>
+        <v>483667</v>
       </c>
     </row>
     <row r="48">
@@ -1199,7 +1199,7 @@
         <v>1994</v>
       </c>
       <c r="D48" t="n">
-        <v>473465</v>
+        <v>560432</v>
       </c>
     </row>
     <row r="49">
@@ -1215,7 +1215,7 @@
         <v>1995</v>
       </c>
       <c r="D49" t="n">
-        <v>449841</v>
+        <v>462232</v>
       </c>
     </row>
     <row r="50">
@@ -1231,7 +1231,7 @@
         <v>1996</v>
       </c>
       <c r="D50" t="n">
-        <v>557559</v>
+        <v>609997</v>
       </c>
     </row>
     <row r="51">
@@ -1247,7 +1247,7 @@
         <v>1997</v>
       </c>
       <c r="D51" t="n">
-        <v>643881</v>
+        <v>630184</v>
       </c>
     </row>
     <row r="52">
@@ -1263,7 +1263,7 @@
         <v>1998</v>
       </c>
       <c r="D52" t="n">
-        <v>534771</v>
+        <v>549005</v>
       </c>
     </row>
     <row r="53">
@@ -1279,7 +1279,7 @@
         <v>1999</v>
       </c>
       <c r="D53" t="n">
-        <v>550149</v>
+        <v>562358</v>
       </c>
     </row>
     <row r="54">
@@ -1295,7 +1295,7 @@
         <v>2000</v>
       </c>
       <c r="D54" t="n">
-        <v>627565</v>
+        <v>610134</v>
       </c>
     </row>
     <row r="55">
@@ -1311,7 +1311,7 @@
         <v>2001</v>
       </c>
       <c r="D55" t="n">
-        <v>643459</v>
+        <v>658975</v>
       </c>
     </row>
     <row r="56">
@@ -1327,7 +1327,7 @@
         <v>2002</v>
       </c>
       <c r="D56" t="n">
-        <v>665287</v>
+        <v>662630</v>
       </c>
     </row>
     <row r="57">
@@ -1343,7 +1343,7 @@
         <v>2003</v>
       </c>
       <c r="D57" t="n">
-        <v>629224</v>
+        <v>639255</v>
       </c>
     </row>
     <row r="58">
@@ -1359,7 +1359,7 @@
         <v>2004</v>
       </c>
       <c r="D58" t="n">
-        <v>624485</v>
+        <v>624756</v>
       </c>
     </row>
     <row r="59">
@@ -1375,7 +1375,7 @@
         <v>2005</v>
       </c>
       <c r="D59" t="n">
-        <v>604445</v>
+        <v>669587</v>
       </c>
     </row>
     <row r="60">
@@ -1391,7 +1391,7 @@
         <v>2006</v>
       </c>
       <c r="D60" t="n">
-        <v>724876</v>
+        <v>619838</v>
       </c>
     </row>
     <row r="61">
@@ -1407,7 +1407,7 @@
         <v>2007</v>
       </c>
       <c r="D61" t="n">
-        <v>439395</v>
+        <v>444528</v>
       </c>
     </row>
     <row r="62">
@@ -1423,7 +1423,7 @@
         <v>2008</v>
       </c>
       <c r="D62" t="n">
-        <v>437678</v>
+        <v>418463</v>
       </c>
     </row>
     <row r="63">
@@ -1439,7 +1439,7 @@
         <v>2009</v>
       </c>
       <c r="D63" t="n">
-        <v>368835</v>
+        <v>395278</v>
       </c>
     </row>
     <row r="64">
@@ -1455,7 +1455,7 @@
         <v>2010</v>
       </c>
       <c r="D64" t="n">
-        <v>404064</v>
+        <v>431517</v>
       </c>
     </row>
     <row r="65">
@@ -1471,7 +1471,7 @@
         <v>2011</v>
       </c>
       <c r="D65" t="n">
-        <v>424592</v>
+        <v>511604</v>
       </c>
     </row>
     <row r="66">
@@ -1487,7 +1487,7 @@
         <v>2012</v>
       </c>
       <c r="D66" t="n">
-        <v>680959</v>
+        <v>682835</v>
       </c>
     </row>
     <row r="67">
@@ -1503,7 +1503,7 @@
         <v>2013</v>
       </c>
       <c r="D67" t="n">
-        <v>779587</v>
+        <v>770824</v>
       </c>
     </row>
     <row r="68">
@@ -1519,7 +1519,7 @@
         <v>2014</v>
       </c>
       <c r="D68" t="n">
-        <v>793520</v>
+        <v>803711</v>
       </c>
     </row>
   </sheetData>
